--- a/Debt Incurring ADDs coding.xlsx
+++ b/Debt Incurring ADDs coding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\AfterPhD\Debt-incurring ADDs\DADDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\AfterPhD\Debt-incurring ADDs\Git\DADDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="153">
   <si>
     <r>
       <rPr>
@@ -63,7 +63,7 @@
     <t>Agile startegy for product introduction lead to inadvertent technical debt</t>
   </si>
   <si>
-    <t>Inadvertent</t>
+    <t>Inadvertent Initial</t>
   </si>
   <si>
     <t>An approach for flexible architecture to reduce inadvertent DADDs due to new requirements</t>
@@ -72,7 +72,7 @@
     <t>Architectural solution</t>
   </si>
   <si>
-    <t>Design decisions</t>
+    <t>Deliberate Initial</t>
   </si>
   <si>
     <t>Architectural solution benefit</t>
@@ -102,16 +102,13 @@
     <t>Challnges to take a DADD</t>
   </si>
   <si>
-    <t>change in SW - inadvertent incident</t>
+    <t>Change team - design the system without considering the knowledge of other developers</t>
   </si>
   <si>
     <t>Inadvertent Final</t>
   </si>
   <si>
-    <t>Change team - design the system without considering the knowledge of other developers</t>
-  </si>
-  <si>
-    <t>Change team - inadvertent incident</t>
+    <t>Change team - trigger</t>
   </si>
   <si>
     <t>chnage in HW - inadvertent incident</t>
@@ -129,213 +126,222 @@
     <t>DADDs deliberate scenario</t>
   </si>
   <si>
+    <t>DADDs requirements change</t>
+  </si>
+  <si>
+    <t>DADDs scenario</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Company architecture process and culture - decision factor</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Final</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Create an Adapter</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - availability of resources</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Complexity to identify architectural technical debt</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Development time</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Impact on existing functionality</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Importance of the project</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Independence from other domains</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - knowledge of developers</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - project phase</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - significance of technical debt</t>
+  </si>
+  <si>
+    <t>Deal with DADDs - Decision factor - Time pressure</t>
+  </si>
+  <si>
+    <t>Deciding between reengineering vs. shortcut</t>
+  </si>
+  <si>
+    <t>Decision factor</t>
+  </si>
+  <si>
+    <t>deliberate DADD Name</t>
+  </si>
+  <si>
+    <t>Design issue</t>
+  </si>
+  <si>
+    <t>Design issue lead to technical debt</t>
+  </si>
+  <si>
+    <t>Design rule</t>
+  </si>
+  <si>
+    <t>Design scenario where good architecture is prefered</t>
+  </si>
+  <si>
+    <t>Difference between impact of deliberate and inadvertent</t>
+  </si>
+  <si>
+    <t>Discovering technology drawbacks - lack of alternative solutions</t>
+  </si>
+  <si>
+    <t>Discovering technology drawbacks - sales overclaim</t>
+  </si>
+  <si>
+    <t>Discovering technology drawbacks - trigger</t>
+  </si>
+  <si>
+    <t>Documentation Debt</t>
+  </si>
+  <si>
+    <t>Documenting DADDs</t>
+  </si>
+  <si>
+    <t>Factor to decide on re-design of inadvertent ADD</t>
+  </si>
+  <si>
+    <t>Factors for selecting the right solution</t>
+  </si>
+  <si>
+    <t>Final - Build vs reuse DADDs</t>
+  </si>
+  <si>
+    <t>Final - DADDs that incur architectural debt</t>
+  </si>
+  <si>
+    <t>Final - Executive DADDs</t>
+  </si>
+  <si>
+    <t>Final - Existence DADDs which incur requirements debt</t>
+  </si>
+  <si>
+    <t>Group decision</t>
+  </si>
+  <si>
+    <t>Group decision on dealing strategy</t>
+  </si>
+  <si>
+    <t>Group discussion for DADDs</t>
+  </si>
+  <si>
+    <t>Impact of DADDs - Lower run-time quality of software</t>
+  </si>
+  <si>
+    <t>Impact of implemented DADD - Complexity to maintainability and bugs relation</t>
+  </si>
+  <si>
+    <t>Impact of implemented DADD - harder to add new functioanlity (worst maintainability)</t>
+  </si>
+  <si>
+    <t>Impact of implemented technical debt - Appearence of bugs</t>
+  </si>
+  <si>
+    <t>Impact of technical debt on visible quality</t>
+  </si>
+  <si>
+    <t>Importance and complexity of the requirement to make changes</t>
+  </si>
+  <si>
+    <t>Inadvertent - Technology trends</t>
+  </si>
+  <si>
+    <t>Inadvertent DADD scenario</t>
+  </si>
+  <si>
+    <t>Lack of requirements analysis lead to TD</t>
+  </si>
+  <si>
+    <t>Maintainability ensurance actions</t>
+  </si>
+  <si>
+    <t>Market analysis related to updating requirement</t>
+  </si>
+  <si>
+    <t>Mitigate technical debt</t>
+  </si>
+  <si>
+    <t>Negative impact of DADD</t>
+  </si>
+  <si>
+    <t>New requirement popup which could lead to inadvertent technical debt</t>
+  </si>
+  <si>
+    <t>Not changing technical debt</t>
+  </si>
+  <si>
+    <t>practive way to handle deliberate DADDs</t>
+  </si>
+  <si>
+    <t>prioritizing technical debt</t>
+  </si>
+  <si>
+    <t>process after new requirements</t>
+  </si>
+  <si>
+    <t>reactive way of handling deliberate DADDs</t>
+  </si>
+  <si>
+    <t>Reason for making generic reusable components</t>
+  </si>
+  <si>
+    <t>Reason for messing the design</t>
+  </si>
+  <si>
+    <t>Reason for missing requirements</t>
+  </si>
+  <si>
+    <t>Reason for technical debt</t>
+  </si>
+  <si>
+    <t>Reason of inadevrtent</t>
+  </si>
+  <si>
+    <t>Reason to care about maintainability</t>
+  </si>
+  <si>
+    <t>Reasoning of not fixing a deliberate DADD</t>
+  </si>
+  <si>
+    <t>Reengineering factor</t>
+  </si>
+  <si>
+    <t>Risk of delaying reengineering plan</t>
+  </si>
+  <si>
+    <t>Scenario to decide on to maintain DADDs</t>
+  </si>
+  <si>
+    <t>Software development process</t>
+  </si>
+  <si>
+    <t>Software development process problem</t>
+  </si>
+  <si>
+    <t>Solution drawback</t>
+  </si>
+  <si>
+    <t>Solution drawback lead to techncial debt</t>
+  </si>
+  <si>
+    <t>Step 2 - Process from maintainable solution to debt-incurring</t>
+  </si>
+  <si>
     <t>Deliberate Final</t>
   </si>
   <si>
-    <t>DADDs requirements change</t>
-  </si>
-  <si>
-    <t>DADDs scenario</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Company architecture process and culture - decision factor</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Final</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Create an Adapter</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - availability of resources</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Complexity to identify architectural technical debt</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Development time</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Impact on existing functionality</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Importance of the project</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Independence from other domains</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - knowledge of developers</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - project phase</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - significance of technical debt</t>
-  </si>
-  <si>
-    <t>Deal with DADDs - Decision factor - Time pressure</t>
-  </si>
-  <si>
-    <t>Deciding between reengineering vs. shortcut</t>
-  </si>
-  <si>
-    <t>Decision factor</t>
-  </si>
-  <si>
-    <t>deliberate DADD Name</t>
-  </si>
-  <si>
-    <t>Design issue</t>
-  </si>
-  <si>
-    <t>Design issue lead to technical debt</t>
-  </si>
-  <si>
-    <t>Design rule</t>
-  </si>
-  <si>
-    <t>Design scenario where good architecture is prefered</t>
-  </si>
-  <si>
-    <t>Difference between impact of deliberate and inadvertent</t>
-  </si>
-  <si>
-    <t>Documentation Debt</t>
-  </si>
-  <si>
-    <t>Documenting DADDs</t>
-  </si>
-  <si>
-    <t>Factor to decide on re-design of inadvertent ADD</t>
-  </si>
-  <si>
-    <t>Factors for selecting the right solution</t>
-  </si>
-  <si>
-    <t>Final - Build vs reuse DADDs</t>
-  </si>
-  <si>
-    <t>Final - DADDs that incur architectural debt</t>
-  </si>
-  <si>
-    <t>Final - Executive DADDs</t>
-  </si>
-  <si>
-    <t>Final - Existence DADDs which incur requirements debt</t>
-  </si>
-  <si>
-    <t>Group decision</t>
-  </si>
-  <si>
-    <t>Group decision on dealing strategy</t>
-  </si>
-  <si>
-    <t>Group discussion for DADDs</t>
-  </si>
-  <si>
-    <t>Impact of DADDs - Lower run-time quality of software</t>
-  </si>
-  <si>
-    <t>Impact of implemented DADD - Complexity to maintainability and bugs relation</t>
-  </si>
-  <si>
-    <t>Impact of implemented DADD - harder to add new functioanlity (worst maintainability)</t>
-  </si>
-  <si>
-    <t>Impact of implemented technical debt - Appearence of bugs</t>
-  </si>
-  <si>
-    <t>Impact of technical debt on visible quality</t>
-  </si>
-  <si>
-    <t>Importance and complexity of the requirement to make changes</t>
-  </si>
-  <si>
-    <t>Inadvertent - Technology trends</t>
-  </si>
-  <si>
-    <t>Inadvertent DADD scenario</t>
-  </si>
-  <si>
-    <t>Lack of requirements analysis lead to TD</t>
-  </si>
-  <si>
-    <t>Maintainability ensurance actions</t>
-  </si>
-  <si>
-    <t>Market analysis related to updating requirement</t>
-  </si>
-  <si>
-    <t>Mitigate technical debt</t>
-  </si>
-  <si>
-    <t>Negative impact of DADD</t>
-  </si>
-  <si>
-    <t>New requirement popup which could lead to inadvertent technical debt</t>
-  </si>
-  <si>
-    <t>Not changing technical debt</t>
-  </si>
-  <si>
-    <t>practive way to handle deliberate DADDs</t>
-  </si>
-  <si>
-    <t>prioritizing technical debt</t>
-  </si>
-  <si>
-    <t>process after new requirements</t>
-  </si>
-  <si>
-    <t>reactive way of handling deliberate DADDs</t>
-  </si>
-  <si>
-    <t>Reason for making generic reusable components</t>
-  </si>
-  <si>
-    <t>Reason for messing the design</t>
-  </si>
-  <si>
-    <t>Reason for missing requirements</t>
-  </si>
-  <si>
-    <t>Reason for technical debt</t>
-  </si>
-  <si>
-    <t>Reason of inadevrtent</t>
-  </si>
-  <si>
-    <t>Reason to care about maintainability</t>
-  </si>
-  <si>
-    <t>Reasoning of not fixing a deliberate DADD</t>
-  </si>
-  <si>
-    <t>Reengineering factor</t>
-  </si>
-  <si>
-    <t>Risk of delaying reengineering plan</t>
-  </si>
-  <si>
-    <t>Scenario to decide on to maintain DADDs</t>
-  </si>
-  <si>
-    <t>Software development process</t>
-  </si>
-  <si>
-    <t>Software development process problem</t>
-  </si>
-  <si>
-    <t>Solution drawback</t>
-  </si>
-  <si>
-    <t>Solution drawback lead to techncial debt</t>
-  </si>
-  <si>
-    <t>Step 2 - Process from maintainable solution to debt-incurring</t>
-  </si>
-  <si>
     <t>Step 2 - propose debt-incurring solution</t>
   </si>
   <si>
@@ -447,7 +453,7 @@
     <t>Tool support</t>
   </si>
   <si>
-    <t>unexpected functional requirements - incident in advertent</t>
+    <t>unexpected functional requirements - trigger</t>
   </si>
   <si>
     <t>unexpected requirement - Agile market analysis - Inadvertent</t>
@@ -459,19 +465,13 @@
     <t>unexpected requirements - company vision</t>
   </si>
   <si>
-    <t>unexpected requirements - lack of alternative solutions</t>
-  </si>
-  <si>
-    <t>unexpected requirements - sales overclaim</t>
-  </si>
-  <si>
     <t>unexpected requirements - software architecture skills</t>
   </si>
   <si>
     <t>unexpected requirements when reusing a 3rd party - inadvertent incident</t>
   </si>
   <si>
-    <t>unexpected requrements - reusability - incident inadvertent</t>
+    <t>unexpected requrements - reusability - trigger</t>
   </si>
   <si>
     <t>Usefulness of documenting ADD rationale and impact</t>
@@ -537,7 +537,7 @@
     </r>
   </si>
   <si>
-    <t>14/01/2021 - 13:35:00</t>
+    <t>20/05/2021 - 10:40:02</t>
   </si>
   <si>
     <r>
@@ -945,7 +945,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1012,18 +1012,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1034,10 +1034,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1045,32 +1045,32 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1111,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1122,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1155,32 +1155,32 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1188,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1199,21 +1199,21 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1221,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1232,21 +1232,21 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1254,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1265,32 +1265,32 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1298,21 +1298,21 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1320,32 +1320,32 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1353,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1364,54 +1364,54 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1419,21 +1419,21 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1441,54 +1441,54 @@
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -1507,32 +1507,32 @@
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1540,21 +1540,21 @@
         <v>2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>7</v>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
@@ -1595,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>7</v>
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>7</v>
@@ -1661,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>7</v>
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>7</v>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
@@ -1694,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>7</v>
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>7</v>
@@ -1738,18 +1738,18 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>7</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>7</v>
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>7</v>
@@ -1804,18 +1804,18 @@
         <v>2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>7</v>
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>7</v>
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>7</v>
@@ -1859,18 +1859,18 @@
         <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>7</v>
@@ -1881,18 +1881,18 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>7</v>
@@ -1903,32 +1903,32 @@
         <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1936,21 +1936,21 @@
         <v>2</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1958,21 +1958,21 @@
         <v>2</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -1980,32 +1980,32 @@
         <v>2</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2035,65 +2035,65 @@
         <v>2</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2101,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2112,21 +2112,21 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2134,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2145,21 +2145,21 @@
         <v>2</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2167,54 +2167,54 @@
         <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -2222,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>20</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>21</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2255,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2266,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2277,10 +2277,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2288,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2299,10 +2299,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2310,10 +2310,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2321,32 +2321,32 @@
         <v>2</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" x14ac:dyDescent="0.25">
@@ -2354,63 +2354,77 @@
         <v>2</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C130" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C134">
